--- a/examples/OregonNd/model_parameter_template.OregonNd.xlsx
+++ b/examples/OregonNd/model_parameter_template.OregonNd.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>class</t>
   </si>
@@ -129,9 +129,6 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>bioburbation coefficient as a function of depth</t>
+    <t>bioturbation coefficient</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,7 +168,7 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>bioirrigation coefficient as a function of depth</t>
+    <t>bioirrigation coefficient</t>
   </si>
   <si>
     <t>speciation</t>
@@ -219,37 +216,37 @@
     <t>mmol cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>Flux of MnO2 at the  TOP of sediment column</t>
+    <t>Flux of MnO2 at the  TOP</t>
   </si>
   <si>
     <t>FFeOOH0</t>
   </si>
   <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
+    <t>Flux of FeOOH at the  TOP</t>
   </si>
   <si>
     <t>FPOC0</t>
   </si>
   <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
+    <t>Flux of POC at the  TOP</t>
   </si>
   <si>
     <t>FFeS0</t>
   </si>
   <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
+    <t>Flux of FeS at the  TOP</t>
   </si>
   <si>
     <t>FFeS20</t>
   </si>
   <si>
-    <t>Flux of FeS2 at the  TOP of sediment column</t>
+    <t>Flux of FeS2 at the  TOP</t>
   </si>
   <si>
     <t>FCaCO30</t>
   </si>
   <si>
-    <t>Flux of CaCO3 at the  TOP of sediment column</t>
+    <t>Flux of CaCO3 at the  TOP</t>
   </si>
   <si>
     <t>Age0</t>
@@ -258,61 +255,61 @@
     <t>year</t>
   </si>
   <si>
-    <t>Age at the TOP of sediment column</t>
+    <t>Age at the TOP</t>
   </si>
   <si>
     <t>FBSi0</t>
   </si>
   <si>
-    <t>Flux of BSi at the  TOP of sediment column</t>
+    <t>Flux of BSi at the  TOP</t>
   </si>
   <si>
     <t>FNdnrPO40</t>
   </si>
   <si>
-    <t>Flux of NdnrPO4 at the  TOP of sediment column</t>
+    <t>Flux of NdnrPO4 at the  TOP</t>
   </si>
   <si>
     <t>FNdrPO40</t>
   </si>
   <si>
-    <t>Flux of NdrPO4 at the  TOP of sediment column</t>
+    <t>Flux of NdrPO4 at the  TOP</t>
   </si>
   <si>
     <t>FSurfMn_Ndnr0</t>
   </si>
   <si>
-    <t>Flux of SurfMn_Ndnr at the  TOP of sediment column</t>
+    <t>Flux of SurfMn_Ndnr at the  TOP</t>
   </si>
   <si>
     <t>FSurfMn_Ndr0</t>
   </si>
   <si>
-    <t>Flux of SurfMn_Ndr at the  TOP of sediment column</t>
+    <t>Flux of SurfMn_Ndr at the  TOP</t>
   </si>
   <si>
     <t>FSurfFe_Ndnr0</t>
   </si>
   <si>
-    <t>Flux of SurfFe_Ndnr at the  TOP of sediment column</t>
+    <t>Flux of SurfFe_Ndnr at the  TOP</t>
   </si>
   <si>
     <t>FSurfFe_Ndr0</t>
   </si>
   <si>
-    <t>Flux of SurfFe_Ndr at the  TOP of sediment column</t>
+    <t>Flux of SurfFe_Ndr at the  TOP</t>
   </si>
   <si>
     <t>FIllite0</t>
   </si>
   <si>
-    <t>Flux of Illite at the  TOP of sediment column</t>
+    <t>Flux of Illite at the  TOP</t>
   </si>
   <si>
     <t>FBasalt0</t>
   </si>
   <si>
-    <t>Flux of Basalt at the  TOP of sediment column</t>
+    <t>Flux of Basalt at the  TOP</t>
   </si>
   <si>
     <t>O2BW</t>
@@ -333,25 +330,25 @@
     <t>TMn_dis0</t>
   </si>
   <si>
-    <t>Concentration of TMn_dis at the TOP of sediment column</t>
+    <t>Concentration of TMn_dis at the TOP</t>
   </si>
   <si>
     <t>FTMn_ads0</t>
   </si>
   <si>
-    <t>Flux of TMn_ads at the  TOP of sediment column</t>
+    <t>Flux of TMn_ads at the  TOP</t>
   </si>
   <si>
     <t>TFe_dis0</t>
   </si>
   <si>
-    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+    <t>Concentration of TFe_dis at the TOP</t>
   </si>
   <si>
     <t>FTFe_ads0</t>
   </si>
   <si>
-    <t>Flux of TFe_ads at the  TOP of sediment column</t>
+    <t>Flux of TFe_ads at the  TOP</t>
   </si>
   <si>
     <t>CH4BW</t>
@@ -381,13 +378,13 @@
     <t>TNH4_dis0</t>
   </si>
   <si>
-    <t>Concentration of TNH4_dis at the TOP of sediment column</t>
+    <t>Concentration of TNH4_dis at the TOP</t>
   </si>
   <si>
     <t>TNH4_ads0</t>
   </si>
   <si>
-    <t>Concentration of TNH4_ads at the TOP of sediment column</t>
+    <t>Concentration of TNH4_ads at the TOP</t>
   </si>
   <si>
     <t>SO4BW</t>
@@ -399,25 +396,25 @@
     <t>TNdnr_dis0</t>
   </si>
   <si>
-    <t>Concentration of TNdnr_dis at the TOP of sediment column</t>
+    <t>Concentration of TNdnr_dis at the TOP</t>
   </si>
   <si>
     <t>FTNdnr_ads0</t>
   </si>
   <si>
-    <t>Flux of TNdnr_ads at the  TOP of sediment column</t>
+    <t>Flux of TNdnr_ads at the  TOP</t>
   </si>
   <si>
     <t>TNdr_dis0</t>
   </si>
   <si>
-    <t>Concentration of TNdr_dis at the TOP of sediment column</t>
+    <t>Concentration of TNdr_dis at the TOP</t>
   </si>
   <si>
     <t>FTNdr_ads0</t>
   </si>
   <si>
-    <t>Flux of TNdr_ads at the  TOP of sediment column</t>
+    <t>Flux of TNdr_ads at the  TOP</t>
   </si>
   <si>
     <t>TH4SiO4BW</t>
@@ -1260,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1274,14 +1271,14 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1289,20 +1286,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1310,20 +1307,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1331,20 +1328,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1352,18 +1349,18 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1371,18 +1368,18 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1390,18 +1387,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1409,18 +1406,18 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1428,18 +1425,18 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1447,18 +1444,18 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1466,18 +1463,18 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1485,18 +1482,18 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1504,20 +1501,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1525,20 +1522,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1546,20 +1543,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1567,20 +1564,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1588,20 +1585,20 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1609,20 +1606,20 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1630,20 +1627,20 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1651,20 +1648,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
         <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1672,20 +1669,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1693,20 +1690,20 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1714,20 +1711,20 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1735,20 +1732,20 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1756,20 +1753,20 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1777,20 +1774,20 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1798,20 +1795,20 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1819,20 +1816,20 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1840,20 +1837,20 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1861,20 +1858,20 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1882,20 +1879,20 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1903,20 +1900,20 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1924,20 +1921,20 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1945,20 +1942,20 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1966,20 +1963,20 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1987,20 +1984,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2008,20 +2005,20 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2029,20 +2026,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2050,20 +2047,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2071,20 +2068,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2092,20 +2089,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2113,20 +2110,20 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2134,20 +2131,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2155,20 +2152,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2176,20 +2173,20 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2197,20 +2194,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2218,20 +2215,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2239,20 +2236,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2260,20 +2257,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2281,20 +2278,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2302,20 +2299,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2323,20 +2320,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
         <v>142</v>
-      </c>
-      <c r="F61" t="s">
-        <v>143</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2344,18 +2341,18 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>145</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2363,18 +2360,18 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2382,18 +2379,18 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2401,18 +2398,18 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2420,18 +2417,18 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2439,18 +2436,18 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2458,18 +2455,18 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2477,18 +2474,18 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2496,18 +2493,18 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2515,18 +2512,18 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2534,18 +2531,18 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2553,18 +2550,18 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2572,18 +2569,18 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2591,18 +2588,18 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2610,18 +2607,18 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2629,18 +2626,18 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2648,18 +2645,18 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2667,18 +2664,18 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2686,18 +2683,18 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2705,18 +2702,18 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2724,18 +2721,18 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2743,18 +2740,18 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2762,18 +2759,18 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2781,18 +2778,18 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2800,18 +2797,18 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2819,18 +2816,18 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2838,18 +2835,18 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2857,18 +2854,18 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2876,18 +2873,18 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2895,18 +2892,18 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2914,18 +2911,18 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -2933,18 +2930,18 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2952,18 +2949,18 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -2971,18 +2968,18 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2990,18 +2987,18 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3009,18 +3006,18 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3028,18 +3025,18 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3047,18 +3044,18 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3066,18 +3063,18 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3085,18 +3082,18 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3104,18 +3101,18 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3123,18 +3120,18 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3142,18 +3139,18 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3161,18 +3158,18 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3180,18 +3177,18 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3199,18 +3196,18 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3218,18 +3215,18 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G108">
         <v>1</v>

--- a/examples/OregonNd/model_parameter_template.OregonNd.xlsx
+++ b/examples/OregonNd/model_parameter_template.OregonNd.xlsx
@@ -327,6 +327,30 @@
     <t>Bottom water concentration of NO3</t>
   </si>
   <si>
+    <t>CH4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of CH4</t>
+  </si>
+  <si>
+    <t>NO2BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of NO2</t>
+  </si>
+  <si>
+    <t>CaBW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of Ca</t>
+  </si>
+  <si>
+    <t>SO4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of SO4</t>
+  </si>
+  <si>
     <t>TMn_dis0</t>
   </si>
   <si>
@@ -351,24 +375,6 @@
     <t>Flux of TFe_ads at the  TOP</t>
   </si>
   <si>
-    <t>CH4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of CH4</t>
-  </si>
-  <si>
-    <t>NO2BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of NO2</t>
-  </si>
-  <si>
-    <t>CaBW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of Ca</t>
-  </si>
-  <si>
     <t>Al_disBW</t>
   </si>
   <si>
@@ -385,12 +391,6 @@
   </si>
   <si>
     <t>Concentration of TNH4_ads at the TOP</t>
-  </si>
-  <si>
-    <t>SO4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of SO4</t>
   </si>
   <si>
     <t>TNdnr_dis0</t>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>103</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
         <v>107</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
         <v>111</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
         <v>115</v>
